--- a/TS/sample.xlsx
+++ b/TS/sample.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48817187-7845-4A0B-A4CE-9F56CF5E464B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5905E575-7840-40C2-8593-77A6D4330C81}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1470" yWindow="1470" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t xml:space="preserve"> Puneet.dew</t>
   </si>
@@ -24,6 +25,15 @@
   </si>
   <si>
     <t>Ravi.teja</t>
+  </si>
+  <si>
+    <t>Puneet</t>
+  </si>
+  <si>
+    <t>Shubham</t>
+  </si>
+  <si>
+    <t>Abhi</t>
   </si>
 </sst>
 </file>
@@ -383,7 +393,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
@@ -421,4 +431,44 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B06D8795-6AA2-46C1-988D-B397B0A3A0DD}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>